--- a/p_optimal_vars_follower.xlsx
+++ b/p_optimal_vars_follower.xlsx
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -744,7 +744,7 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1080,7 +1080,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D131">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2606,7 +2606,7 @@
         <v>37</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2718,7 +2718,7 @@
         <v>45</v>
       </c>
       <c r="D167">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4720,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="D310">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4734,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5224,7 +5224,7 @@
         <v>44</v>
       </c>
       <c r="D346">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5238,7 +5238,7 @@
         <v>45</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="D427">
-        <v>59</v>
+        <v>226</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6470,7 +6470,7 @@
         <v>13</v>
       </c>
       <c r="D435">
-        <v>44</v>
+        <v>210</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6554,7 +6554,7 @@
         <v>19</v>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6568,7 +6568,7 @@
         <v>20</v>
       </c>
       <c r="D442">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6582,7 +6582,7 @@
         <v>21</v>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6596,7 +6596,7 @@
         <v>22</v>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8920,7 +8920,7 @@
         <v>8</v>
       </c>
       <c r="D610">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -9480,7 +9480,7 @@
         <v>48</v>
       </c>
       <c r="D650">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -9494,7 +9494,7 @@
         <v>49</v>
       </c>
       <c r="D651">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -10614,7 +10614,7 @@
         <v>9</v>
       </c>
       <c r="D731">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -10684,7 +10684,7 @@
         <v>14</v>
       </c>
       <c r="D736">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -11118,7 +11118,7 @@
         <v>45</v>
       </c>
       <c r="D767">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12280,7 +12280,7 @@
         <v>8</v>
       </c>
       <c r="D850">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -12294,7 +12294,7 @@
         <v>9</v>
       </c>
       <c r="D851">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -12588,7 +12588,7 @@
         <v>30</v>
       </c>
       <c r="D872">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -12644,7 +12644,7 @@
         <v>34</v>
       </c>
       <c r="D876">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -12658,7 +12658,7 @@
         <v>35</v>
       </c>
       <c r="D877">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -12770,7 +12770,7 @@
         <v>43</v>
       </c>
       <c r="D885">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -13134,7 +13134,7 @@
         <v>9</v>
       </c>
       <c r="D911">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -13526,7 +13526,7 @@
         <v>37</v>
       </c>
       <c r="D939">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>45</v>
       </c>
       <c r="D947">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14758,7 +14758,7 @@
         <v>5</v>
       </c>
       <c r="D1027">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -14786,7 +14786,7 @@
         <v>7</v>
       </c>
       <c r="D1029">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
@@ -14842,7 +14842,7 @@
         <v>11</v>
       </c>
       <c r="D1033">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
@@ -14954,7 +14954,7 @@
         <v>19</v>
       </c>
       <c r="D1041">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:4">
@@ -14968,7 +14968,7 @@
         <v>20</v>
       </c>
       <c r="D1042">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -14982,7 +14982,7 @@
         <v>21</v>
       </c>
       <c r="D1043">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -14996,7 +14996,7 @@
         <v>22</v>
       </c>
       <c r="D1044">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -15010,7 +15010,7 @@
         <v>23</v>
       </c>
       <c r="D1045">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -17320,7 +17320,7 @@
         <v>8</v>
       </c>
       <c r="D1210">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1211" spans="1:4">
@@ -17334,7 +17334,7 @@
         <v>9</v>
       </c>
       <c r="D1211">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
@@ -17852,7 +17852,7 @@
         <v>46</v>
       </c>
       <c r="D1248">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:4">
@@ -17894,7 +17894,7 @@
         <v>49</v>
       </c>
       <c r="D1251">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1252" spans="1:4">
@@ -19014,7 +19014,7 @@
         <v>9</v>
       </c>
       <c r="D1331">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1332" spans="1:4">
@@ -19406,7 +19406,7 @@
         <v>37</v>
       </c>
       <c r="D1359">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -19420,7 +19420,7 @@
         <v>38</v>
       </c>
       <c r="D1360">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361" spans="1:4">
@@ -21534,7 +21534,7 @@
         <v>9</v>
       </c>
       <c r="D1511">
-        <v>216</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1512" spans="1:4">
@@ -21646,7 +21646,7 @@
         <v>17</v>
       </c>
       <c r="D1519">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1520" spans="1:4">
@@ -21660,7 +21660,7 @@
         <v>18</v>
       </c>
       <c r="D1520">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521" spans="1:4">
@@ -21800,7 +21800,7 @@
         <v>28</v>
       </c>
       <c r="D1530">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531" spans="1:4">
@@ -21842,7 +21842,7 @@
         <v>31</v>
       </c>
       <c r="D1533">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534" spans="1:4">
@@ -21870,7 +21870,7 @@
         <v>33</v>
       </c>
       <c r="D1535">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536" spans="1:4">
@@ -22038,7 +22038,7 @@
         <v>45</v>
       </c>
       <c r="D1547">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1548" spans="1:4">
@@ -23158,7 +23158,7 @@
         <v>5</v>
       </c>
       <c r="D1627">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -23256,7 +23256,7 @@
         <v>12</v>
       </c>
       <c r="D1634">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:4">
@@ -23270,7 +23270,7 @@
         <v>13</v>
       </c>
       <c r="D1635">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1636" spans="1:4">
@@ -23312,7 +23312,7 @@
         <v>16</v>
       </c>
       <c r="D1638">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -27414,7 +27414,7 @@
         <v>9</v>
       </c>
       <c r="D1931">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1932" spans="1:4">
@@ -27806,7 +27806,7 @@
         <v>37</v>
       </c>
       <c r="D1959">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -27918,7 +27918,7 @@
         <v>45</v>
       </c>
       <c r="D1967">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1968" spans="1:4">
@@ -29934,7 +29934,7 @@
         <v>9</v>
       </c>
       <c r="D2111">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2112" spans="1:4">
@@ -30326,7 +30326,7 @@
         <v>37</v>
       </c>
       <c r="D2139">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2140" spans="1:4">
@@ -30438,7 +30438,7 @@
         <v>45</v>
       </c>
       <c r="D2147">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2148" spans="1:4">
@@ -35814,7 +35814,7 @@
         <v>9</v>
       </c>
       <c r="D2531">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2532" spans="1:4">
@@ -36206,7 +36206,7 @@
         <v>37</v>
       </c>
       <c r="D2559">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2560" spans="1:4">
@@ -36318,7 +36318,7 @@
         <v>45</v>
       </c>
       <c r="D2567">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2568" spans="1:4">
@@ -37480,7 +37480,7 @@
         <v>8</v>
       </c>
       <c r="D2650">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2651" spans="1:4">
@@ -37494,7 +37494,7 @@
         <v>9</v>
       </c>
       <c r="D2651">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2652" spans="1:4">
@@ -37760,7 +37760,7 @@
         <v>28</v>
       </c>
       <c r="D2670">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2671" spans="1:4">
@@ -37844,7 +37844,7 @@
         <v>34</v>
       </c>
       <c r="D2676">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2677" spans="1:4">
@@ -37858,7 +37858,7 @@
         <v>35</v>
       </c>
       <c r="D2677">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2678" spans="1:4">
@@ -37970,7 +37970,7 @@
         <v>43</v>
       </c>
       <c r="D2685">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2686" spans="1:4">
@@ -38334,7 +38334,7 @@
         <v>9</v>
       </c>
       <c r="D2711">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2712" spans="1:4">
@@ -38404,7 +38404,7 @@
         <v>14</v>
       </c>
       <c r="D2716">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2717" spans="1:4">
@@ -38838,7 +38838,7 @@
         <v>45</v>
       </c>
       <c r="D2747">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2748" spans="1:4">
@@ -39118,7 +39118,7 @@
         <v>5</v>
       </c>
       <c r="D2767">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -39188,7 +39188,7 @@
         <v>10</v>
       </c>
       <c r="D2772">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2773" spans="1:4">
@@ -39258,7 +39258,7 @@
         <v>15</v>
       </c>
       <c r="D2777">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2778" spans="1:4">
@@ -39958,7 +39958,7 @@
         <v>5</v>
       </c>
       <c r="D2827">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2828" spans="1:4">
@@ -40056,7 +40056,7 @@
         <v>12</v>
       </c>
       <c r="D2834">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2835" spans="1:4">
@@ -40070,7 +40070,7 @@
         <v>13</v>
       </c>
       <c r="D2835">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2836" spans="1:4">
@@ -40112,7 +40112,7 @@
         <v>16</v>
       </c>
       <c r="D2838">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2839" spans="1:4">
@@ -42520,7 +42520,7 @@
         <v>8</v>
       </c>
       <c r="D3010">
-        <v>182</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3011" spans="1:4">
@@ -42744,7 +42744,7 @@
         <v>24</v>
       </c>
       <c r="D3026">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3027" spans="1:4">
@@ -43052,7 +43052,7 @@
         <v>46</v>
       </c>
       <c r="D3048">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3049" spans="1:4">
@@ -44214,7 +44214,7 @@
         <v>9</v>
       </c>
       <c r="D3131">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3132" spans="1:4">
@@ -44620,7 +44620,7 @@
         <v>38</v>
       </c>
       <c r="D3160">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3161" spans="1:4">
@@ -44718,7 +44718,7 @@
         <v>45</v>
       </c>
       <c r="D3167">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3168" spans="1:4">
@@ -45880,7 +45880,7 @@
         <v>8</v>
       </c>
       <c r="D3250">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3251" spans="1:4">
@@ -46258,7 +46258,7 @@
         <v>35</v>
       </c>
       <c r="D3277">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3278" spans="1:4">
@@ -46384,7 +46384,7 @@
         <v>44</v>
       </c>
       <c r="D3286">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3287" spans="1:4">
@@ -46720,7 +46720,7 @@
         <v>8</v>
       </c>
       <c r="D3310">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3311" spans="1:4">
@@ -46734,7 +46734,7 @@
         <v>9</v>
       </c>
       <c r="D3311">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3312" spans="1:4">
@@ -46958,7 +46958,7 @@
         <v>25</v>
       </c>
       <c r="D3327">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3328" spans="1:4">
@@ -47238,7 +47238,7 @@
         <v>45</v>
       </c>
       <c r="D3347">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3348" spans="1:4">
@@ -47518,7 +47518,7 @@
         <v>5</v>
       </c>
       <c r="D3367">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3368" spans="1:4">
@@ -47588,7 +47588,7 @@
         <v>10</v>
       </c>
       <c r="D3372">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3373" spans="1:4">
@@ -47658,7 +47658,7 @@
         <v>15</v>
       </c>
       <c r="D3377">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3378" spans="1:4">
@@ -48358,7 +48358,7 @@
         <v>5</v>
       </c>
       <c r="D3427">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3428" spans="1:4">
@@ -48414,7 +48414,7 @@
         <v>9</v>
       </c>
       <c r="D3431">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3432" spans="1:4">
@@ -48442,7 +48442,7 @@
         <v>11</v>
       </c>
       <c r="D3433">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3434" spans="1:4">
@@ -48526,7 +48526,7 @@
         <v>17</v>
       </c>
       <c r="D3439">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3440" spans="1:4">
@@ -48540,7 +48540,7 @@
         <v>18</v>
       </c>
       <c r="D3440">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3441" spans="1:4">
@@ -48610,7 +48610,7 @@
         <v>23</v>
       </c>
       <c r="D3445">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3446" spans="1:4">
@@ -48708,7 +48708,7 @@
         <v>30</v>
       </c>
       <c r="D3452">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3453" spans="1:4">
@@ -48722,7 +48722,7 @@
         <v>31</v>
       </c>
       <c r="D3453">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3454" spans="1:4">
@@ -48750,7 +48750,7 @@
         <v>33</v>
       </c>
       <c r="D3455">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3456" spans="1:4">

--- a/p_optimal_vars_follower.xlsx
+++ b/p_optimal_vars_follower.xlsx
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>208</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -744,7 +744,7 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="D131">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2606,7 +2606,7 @@
         <v>37</v>
       </c>
       <c r="D159">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2718,7 +2718,7 @@
         <v>45</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4734,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="D311">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5126,7 +5126,7 @@
         <v>37</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5238,7 +5238,7 @@
         <v>45</v>
       </c>
       <c r="D347">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="D427">
-        <v>226</v>
+        <v>59</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6470,7 +6470,7 @@
         <v>13</v>
       </c>
       <c r="D435">
-        <v>210</v>
+        <v>44</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6554,7 +6554,7 @@
         <v>19</v>
       </c>
       <c r="D441">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6568,7 +6568,7 @@
         <v>20</v>
       </c>
       <c r="D442">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6582,7 +6582,7 @@
         <v>21</v>
       </c>
       <c r="D443">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6596,7 +6596,7 @@
         <v>22</v>
       </c>
       <c r="D444">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10614,7 +10614,7 @@
         <v>9</v>
       </c>
       <c r="D731">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -10684,7 +10684,7 @@
         <v>14</v>
       </c>
       <c r="D736">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -11118,7 +11118,7 @@
         <v>45</v>
       </c>
       <c r="D767">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13134,7 +13134,7 @@
         <v>9</v>
       </c>
       <c r="D911">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -13624,7 +13624,7 @@
         <v>44</v>
       </c>
       <c r="D946">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>45</v>
       </c>
       <c r="D947">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14758,7 +14758,7 @@
         <v>5</v>
       </c>
       <c r="D1027">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -14786,7 +14786,7 @@
         <v>7</v>
       </c>
       <c r="D1029">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
@@ -14842,7 +14842,7 @@
         <v>11</v>
       </c>
       <c r="D1033">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
@@ -14954,7 +14954,7 @@
         <v>19</v>
       </c>
       <c r="D1041">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1042" spans="1:4">
@@ -14968,7 +14968,7 @@
         <v>20</v>
       </c>
       <c r="D1042">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -14982,7 +14982,7 @@
         <v>21</v>
       </c>
       <c r="D1043">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -14996,7 +14996,7 @@
         <v>22</v>
       </c>
       <c r="D1044">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -15010,7 +15010,7 @@
         <v>23</v>
       </c>
       <c r="D1045">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -17320,7 +17320,7 @@
         <v>8</v>
       </c>
       <c r="D1210">
-        <v>131</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1211" spans="1:4">
@@ -17656,7 +17656,7 @@
         <v>32</v>
       </c>
       <c r="D1234">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1235" spans="1:4">
@@ -17712,7 +17712,7 @@
         <v>36</v>
       </c>
       <c r="D1238">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
@@ -17768,7 +17768,7 @@
         <v>40</v>
       </c>
       <c r="D1242">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1243" spans="1:4">
@@ -17796,7 +17796,7 @@
         <v>42</v>
       </c>
       <c r="D1244">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1245" spans="1:4">
@@ -17866,7 +17866,7 @@
         <v>47</v>
       </c>
       <c r="D1249">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1250" spans="1:4">
@@ -17894,7 +17894,7 @@
         <v>49</v>
       </c>
       <c r="D1251">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:4">
@@ -19014,7 +19014,7 @@
         <v>9</v>
       </c>
       <c r="D1331">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1332" spans="1:4">
@@ -19406,7 +19406,7 @@
         <v>37</v>
       </c>
       <c r="D1359">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -19518,7 +19518,7 @@
         <v>45</v>
       </c>
       <c r="D1367">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1368" spans="1:4">
@@ -20680,7 +20680,7 @@
         <v>8</v>
       </c>
       <c r="D1450">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451" spans="1:4">
@@ -20694,7 +20694,7 @@
         <v>9</v>
       </c>
       <c r="D1451">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21534,7 +21534,7 @@
         <v>9</v>
       </c>
       <c r="D1511">
-        <v>66</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1512" spans="1:4">
@@ -21646,7 +21646,7 @@
         <v>17</v>
       </c>
       <c r="D1519">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1520" spans="1:4">
@@ -21660,7 +21660,7 @@
         <v>18</v>
       </c>
       <c r="D1520">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1521" spans="1:4">
@@ -21800,7 +21800,7 @@
         <v>28</v>
       </c>
       <c r="D1530">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1531" spans="1:4">
@@ -21842,7 +21842,7 @@
         <v>31</v>
       </c>
       <c r="D1533">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1534" spans="1:4">
@@ -21870,7 +21870,7 @@
         <v>33</v>
       </c>
       <c r="D1535">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1536" spans="1:4">
@@ -22038,7 +22038,7 @@
         <v>45</v>
       </c>
       <c r="D1547">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548" spans="1:4">
@@ -22318,7 +22318,7 @@
         <v>5</v>
       </c>
       <c r="D1567">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1568" spans="1:4">
@@ -22388,7 +22388,7 @@
         <v>10</v>
       </c>
       <c r="D1572">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1573" spans="1:4">
@@ -22458,7 +22458,7 @@
         <v>15</v>
       </c>
       <c r="D1577">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1578" spans="1:4">
@@ -23158,7 +23158,7 @@
         <v>5</v>
       </c>
       <c r="D1627">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -23256,7 +23256,7 @@
         <v>12</v>
       </c>
       <c r="D1634">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1635" spans="1:4">
@@ -23270,7 +23270,7 @@
         <v>13</v>
       </c>
       <c r="D1635">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636" spans="1:4">
@@ -23312,7 +23312,7 @@
         <v>16</v>
       </c>
       <c r="D1638">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -25720,7 +25720,7 @@
         <v>8</v>
       </c>
       <c r="D1810">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1811" spans="1:4">
@@ -26252,7 +26252,7 @@
         <v>46</v>
       </c>
       <c r="D1848">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1849" spans="1:4">
@@ -26294,7 +26294,7 @@
         <v>49</v>
       </c>
       <c r="D1851">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1852" spans="1:4">
@@ -27414,7 +27414,7 @@
         <v>9</v>
       </c>
       <c r="D1931">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1932" spans="1:4">
@@ -27806,7 +27806,7 @@
         <v>37</v>
       </c>
       <c r="D1959">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -27918,7 +27918,7 @@
         <v>45</v>
       </c>
       <c r="D1967">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1968" spans="1:4">
@@ -29080,7 +29080,7 @@
         <v>8</v>
       </c>
       <c r="D2050">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2051" spans="1:4">
@@ -29094,7 +29094,7 @@
         <v>9</v>
       </c>
       <c r="D2051">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2052" spans="1:4">
@@ -29920,7 +29920,7 @@
         <v>8</v>
       </c>
       <c r="D2110">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -29934,7 +29934,7 @@
         <v>9</v>
       </c>
       <c r="D2111">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2112" spans="1:4">
@@ -30158,7 +30158,7 @@
         <v>25</v>
       </c>
       <c r="D2127">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2128" spans="1:4">
@@ -30438,7 +30438,7 @@
         <v>45</v>
       </c>
       <c r="D2147">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2148" spans="1:4">
@@ -34120,7 +34120,7 @@
         <v>8</v>
       </c>
       <c r="D2410">
-        <v>241</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2411" spans="1:4">
@@ -34456,7 +34456,7 @@
         <v>32</v>
       </c>
       <c r="D2434">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2435" spans="1:4">
@@ -34512,7 +34512,7 @@
         <v>36</v>
       </c>
       <c r="D2438">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2439" spans="1:4">
@@ -34568,7 +34568,7 @@
         <v>40</v>
       </c>
       <c r="D2442">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -34596,7 +34596,7 @@
         <v>42</v>
       </c>
       <c r="D2444">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2445" spans="1:4">
@@ -34652,7 +34652,7 @@
         <v>46</v>
       </c>
       <c r="D2448">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -34666,7 +34666,7 @@
         <v>47</v>
       </c>
       <c r="D2449">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450" spans="1:4">
@@ -35814,7 +35814,7 @@
         <v>9</v>
       </c>
       <c r="D2531">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2532" spans="1:4">
@@ -36206,7 +36206,7 @@
         <v>37</v>
       </c>
       <c r="D2559">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2560" spans="1:4">
@@ -36318,7 +36318,7 @@
         <v>45</v>
       </c>
       <c r="D2567">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2568" spans="1:4">
@@ -37494,7 +37494,7 @@
         <v>9</v>
       </c>
       <c r="D2651">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2652" spans="1:4">
@@ -37760,7 +37760,7 @@
         <v>28</v>
       </c>
       <c r="D2670">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2671" spans="1:4">
@@ -37788,7 +37788,7 @@
         <v>30</v>
       </c>
       <c r="D2672">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2673" spans="1:4">
@@ -37844,7 +37844,7 @@
         <v>34</v>
       </c>
       <c r="D2676">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2677" spans="1:4">
@@ -37970,7 +37970,7 @@
         <v>43</v>
       </c>
       <c r="D2685">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2686" spans="1:4">
@@ -38334,7 +38334,7 @@
         <v>9</v>
       </c>
       <c r="D2711">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2712" spans="1:4">
@@ -38404,7 +38404,7 @@
         <v>14</v>
       </c>
       <c r="D2716">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2717" spans="1:4">
@@ -38838,7 +38838,7 @@
         <v>45</v>
       </c>
       <c r="D2747">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2748" spans="1:4">
@@ -39118,7 +39118,7 @@
         <v>5</v>
       </c>
       <c r="D2767">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -39188,7 +39188,7 @@
         <v>10</v>
       </c>
       <c r="D2772">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2773" spans="1:4">
@@ -39258,7 +39258,7 @@
         <v>15</v>
       </c>
       <c r="D2777">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2778" spans="1:4">
@@ -39958,7 +39958,7 @@
         <v>5</v>
       </c>
       <c r="D2827">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2828" spans="1:4">
@@ -40056,7 +40056,7 @@
         <v>12</v>
       </c>
       <c r="D2834">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2835" spans="1:4">
@@ -40070,7 +40070,7 @@
         <v>13</v>
       </c>
       <c r="D2835">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2836" spans="1:4">
@@ -40112,7 +40112,7 @@
         <v>16</v>
       </c>
       <c r="D2838">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2839" spans="1:4">
@@ -42520,7 +42520,7 @@
         <v>8</v>
       </c>
       <c r="D3010">
-        <v>109</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3011" spans="1:4">
@@ -42744,7 +42744,7 @@
         <v>24</v>
       </c>
       <c r="D3026">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3027" spans="1:4">
@@ -43052,7 +43052,7 @@
         <v>46</v>
       </c>
       <c r="D3048">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3049" spans="1:4">
@@ -45880,7 +45880,7 @@
         <v>8</v>
       </c>
       <c r="D3250">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3251" spans="1:4">
@@ -46258,7 +46258,7 @@
         <v>35</v>
       </c>
       <c r="D3277">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3278" spans="1:4">
@@ -46384,7 +46384,7 @@
         <v>44</v>
       </c>
       <c r="D3286">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3287" spans="1:4">
@@ -46734,7 +46734,7 @@
         <v>9</v>
       </c>
       <c r="D3311">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3312" spans="1:4">
@@ -47126,7 +47126,7 @@
         <v>37</v>
       </c>
       <c r="D3339">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3340" spans="1:4">
@@ -47238,7 +47238,7 @@
         <v>45</v>
       </c>
       <c r="D3347">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3348" spans="1:4">
@@ -48358,7 +48358,7 @@
         <v>5</v>
       </c>
       <c r="D3427">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3428" spans="1:4">
@@ -48414,7 +48414,7 @@
         <v>9</v>
       </c>
       <c r="D3431">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3432" spans="1:4">
@@ -48442,7 +48442,7 @@
         <v>11</v>
       </c>
       <c r="D3433">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3434" spans="1:4">
@@ -48526,7 +48526,7 @@
         <v>17</v>
       </c>
       <c r="D3439">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3440" spans="1:4">
@@ -48540,7 +48540,7 @@
         <v>18</v>
       </c>
       <c r="D3440">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3441" spans="1:4">
@@ -48610,7 +48610,7 @@
         <v>23</v>
       </c>
       <c r="D3445">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3446" spans="1:4">
@@ -48708,7 +48708,7 @@
         <v>30</v>
       </c>
       <c r="D3452">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3453" spans="1:4">
@@ -48722,7 +48722,7 @@
         <v>31</v>
       </c>
       <c r="D3453">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3454" spans="1:4">
@@ -48750,7 +48750,7 @@
         <v>33</v>
       </c>
       <c r="D3455">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3456" spans="1:4">
